--- a/data/trans_camb/P1421-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1421-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.48715441356283</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.09457591506856</v>
+        <v>6.094575915068559</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.335763311812911</v>
@@ -664,7 +664,7 @@
         <v>0.5513655507042615</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>4.100334612007399</v>
+        <v>4.100334612007398</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.592197156141456</v>
+        <v>-2.588435899232445</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.11844090964064</v>
+        <v>-2.22719140249417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6403000117602771</v>
+        <v>-0.6164572806994871</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.619321082202777</v>
+        <v>-1.558312201365847</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.5993363761006376</v>
+        <v>-0.4753994651242239</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.989179080071444</v>
+        <v>4.26549636931736</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.488203142282347</v>
+        <v>-1.505280966470903</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.8076457119565648</v>
+        <v>-0.8446039598090032</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.54417536486616</v>
+        <v>2.737004965788149</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1215068442364606</v>
+        <v>0.0142278817373359</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6921214470213013</v>
+        <v>0.6873642270197597</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.787091941153338</v>
+        <v>2.908780562754437</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.071800021659707</v>
+        <v>2.130344545318355</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.745966966526133</v>
+        <v>3.712359744182232</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.212319955463117</v>
+        <v>8.313909030004012</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8646021556540527</v>
+        <v>0.9939799079421133</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.080753181210331</v>
+        <v>1.967115182860908</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.500393382269446</v>
+        <v>5.655257518014743</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.1239392323258354</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.9216976349758028</v>
+        <v>0.9216976349758025</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7054348196809495</v>
+        <v>-0.7128322318531881</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5982849477880122</v>
+        <v>-0.6148373168436759</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2198287748936973</v>
+        <v>-0.187987433671097</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2447625912147981</v>
+        <v>-0.2401890694566765</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1002286696906523</v>
+        <v>-0.07902949676733524</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5751040684295725</v>
+        <v>0.6164669190683637</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3045752758036435</v>
+        <v>-0.2953034629125724</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1686812011394061</v>
+        <v>-0.167729504733769</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4948647886596723</v>
+        <v>0.5407386479042904</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1074634493207117</v>
+        <v>0.04806922201429136</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3252466805352439</v>
+        <v>0.3516654056048211</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.202274276851305</v>
+        <v>1.333767417098716</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4257169047953963</v>
+        <v>0.4858975430566165</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7566449325233492</v>
+        <v>0.7287232049831653</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.740032430803766</v>
+        <v>1.70285249884816</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2337022163185532</v>
+        <v>0.2690570121002336</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.554428955634735</v>
+        <v>0.5082741013762677</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.405782646512369</v>
+        <v>1.523977880831246</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.7524170206226696</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.97141005213612</v>
+        <v>2.971410052136121</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.8366146718007977</v>
@@ -869,7 +869,7 @@
         <v>-0.9016187961008594</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>5.796321697079765</v>
+        <v>5.796321697079764</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.7869838216362394</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.514498566267922</v>
+        <v>-1.580355802915895</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.649623813706561</v>
+        <v>-1.6520679968838</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.72681765524883</v>
+        <v>1.80184860737903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.358085697482583</v>
+        <v>-2.508572109683299</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.412944941796144</v>
+        <v>-2.392174807582045</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.965367990030248</v>
+        <v>3.876532940762846</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.645558030537528</v>
+        <v>-1.666790305940848</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.633812326569798</v>
+        <v>-1.630701355218401</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.271366800215015</v>
+        <v>3.386941560638312</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1106290272368532</v>
+        <v>0.1261633081989475</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03179847884467234</v>
+        <v>-0.002324361746048508</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.108293030954449</v>
+        <v>4.245142455009669</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6800740408693837</v>
+        <v>0.8248765822552718</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4556199255217841</v>
+        <v>0.8690073801935017</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.358734023300586</v>
+        <v>7.321380884834659</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1326350605860369</v>
+        <v>0.07812145560075907</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.01176122695334967</v>
+        <v>0.05748950174182025</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.424117266671249</v>
+        <v>5.488421131295294</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1583629878924594</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.018083059830931</v>
+        <v>1.01808305983093</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2121880430961698</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6279310920084059</v>
+        <v>-0.6346344277814123</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6796202393517266</v>
+        <v>-0.6848159756687764</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7460220181550881</v>
+        <v>0.693658482405804</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.355347124764826</v>
+        <v>-0.3836430509174899</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3691666494153322</v>
+        <v>-0.3746790112629415</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.593537430833001</v>
+        <v>0.5641679400212911</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3863090486025078</v>
+        <v>-0.3996166965881582</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3872358555674616</v>
+        <v>-0.3910492298040343</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7594821724836246</v>
+        <v>0.7915270048426526</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1190032050443279</v>
+        <v>0.09244604384089646</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.02975520347246253</v>
+        <v>0.02254130092184224</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.130105527686403</v>
+        <v>3.170298432112014</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1521081040688735</v>
+        <v>0.1673557927865017</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08920171776940593</v>
+        <v>0.1851399777684387</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.533741622599603</v>
+        <v>1.496546414798618</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04167946828826957</v>
+        <v>0.03423329252217993</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.002681713211432546</v>
+        <v>0.01915775841140227</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.65842559564</v>
+        <v>1.734059884040893</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-1.215380489655082</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.658190175855664</v>
+        <v>2.658190175855663</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.555053627086625</v>
+        <v>-4.539124898100331</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.273146362576521</v>
+        <v>-3.592910061690434</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.136242557578973</v>
+        <v>-1.22336224044928</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.059280049210169</v>
+        <v>-3.82303892713368</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.418866767369018</v>
+        <v>-3.929725527539538</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9193674765680365</v>
+        <v>0.96373147921584</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.532806998494576</v>
+        <v>-3.219858371889909</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.929695619762371</v>
+        <v>-3.040366130653816</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9519267431975015</v>
+        <v>0.9592071642079097</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.376676207624946</v>
+        <v>-1.496264383400735</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2033190435535779</v>
+        <v>0.1450247455846903</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.933193949777551</v>
+        <v>3.219001614827262</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.635767659411714</v>
+        <v>2.526615977512468</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.745150481825456</v>
+        <v>1.796099598987521</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.923618038324697</v>
+        <v>7.146228976596913</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.0548477996594557</v>
+        <v>0.01833993297855196</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4675870255890208</v>
+        <v>0.359697325949587</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.504844155319333</v>
+        <v>4.632728239045504</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.2642306193079752</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5779056372741737</v>
+        <v>0.5779056372741733</v>
       </c>
     </row>
     <row r="20">
@@ -1211,28 +1211,28 @@
         <v>-1</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7683404321706239</v>
+        <v>-0.7755854312050994</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2874962063205894</v>
+        <v>-0.3147305518201506</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5090514707262108</v>
+        <v>-0.4956438566308242</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5444841479863403</v>
+        <v>-0.5093705936967245</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07914843217864369</v>
+        <v>0.1072535471460934</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6243993364179882</v>
+        <v>-0.5947790330176851</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.531899823452856</v>
+        <v>-0.536817906222355</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1441329154250619</v>
+        <v>0.1632445251978734</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.3609834689830544</v>
+        <v>-0.3497623503791445</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2294296729791781</v>
+        <v>0.1432309224367005</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.285891094455909</v>
+        <v>1.303935569351168</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5803895737455894</v>
+        <v>0.5908044018292505</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4246958180358997</v>
+        <v>0.4035397434695726</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.520799215084832</v>
+        <v>1.605032190413271</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.007857668728374472</v>
+        <v>0.01116308607474081</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1499543652649326</v>
+        <v>0.1087820630115473</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.263825949675513</v>
+        <v>1.323441944927755</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-0.2553813280854758</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.562509722424354</v>
+        <v>5.562509722424357</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.7923800203192021</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.862846604539984</v>
+        <v>-1.863299792955195</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.655907121617659</v>
+        <v>-1.634623944333476</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.217739592038014</v>
+        <v>1.272306881760423</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.594454903016326</v>
+        <v>-1.521336055166452</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.334338243745299</v>
+        <v>-1.354686524214595</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.35407957664721</v>
+        <v>4.391187437650128</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.472675328407626</v>
+        <v>-1.392623586576463</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.275587695629241</v>
+        <v>-1.225173772845027</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.064754853377401</v>
+        <v>3.14262013306261</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.5161519288270795</v>
+        <v>-0.5747896563314968</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.319273707334962</v>
+        <v>-0.3278680510773662</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.032446459216786</v>
+        <v>3.128184903571106</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7248880029648735</v>
+        <v>0.6751578492433563</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.022082991471914</v>
+        <v>0.8169580011040919</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.813210838669767</v>
+        <v>6.795309877075134</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.2168877297448701</v>
+        <v>-0.1105406996898929</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0703644443039472</v>
+        <v>0.01656311428048034</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.686736517690721</v>
+        <v>4.751236438044858</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.4081604477059191</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.8890024994816561</v>
+        <v>0.8890024994816564</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.07350061755044908</v>
@@ -1402,7 +1402,7 @@
         <v>-0.04427825199548845</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.964433105048402</v>
+        <v>0.9644331050484024</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1929195207091991</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6623340732373875</v>
+        <v>-0.662742131250551</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5861230088648011</v>
+        <v>-0.6031863301868068</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4063577956101156</v>
+        <v>0.4575837381115226</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2519088234070005</v>
+        <v>-0.2436945898550643</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2157716063345937</v>
+        <v>-0.2172321073690011</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6772468335936065</v>
+        <v>0.6854042501049374</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3230849664842528</v>
+        <v>-0.3165250283698272</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2831321643149506</v>
+        <v>-0.2784925855000172</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6776177672418523</v>
+        <v>0.6806384245670025</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2471343417107937</v>
+        <v>-0.2770516396545639</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1392341302842081</v>
+        <v>-0.1595388534818511</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.461961961260382</v>
+        <v>1.534660273970454</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1454600015165996</v>
+        <v>0.1293196271112215</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1992566262603742</v>
+        <v>0.1525123046978003</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.324489755454533</v>
+        <v>1.322340163657948</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.05520814678099935</v>
+        <v>-0.03080444148147599</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.01827221289547926</v>
+        <v>0.004214969148989098</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.246490076999837</v>
+        <v>1.253932105181184</v>
       </c>
     </row>
     <row r="28">
